--- a/fb marketplace/financials/2018/Account Summary.xlsx
+++ b/fb marketplace/financials/2018/Account Summary.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Expenses" sheetId="3" r:id="rId2"/>
-    <sheet name="Debts" sheetId="2" r:id="rId3"/>
+    <sheet name="Summary" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Expenses" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Debts" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>S.No</t>
   </si>
@@ -208,6 +210,24 @@
   </si>
   <si>
     <t>22,500 Paid till date(20-05-2018)</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Purchased items from Sunil</t>
+  </si>
+  <si>
+    <t>Purchased items from Ali Express</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Gimto Watch</t>
+  </si>
+  <si>
+    <t>Mouse pad order cost with shipping cost</t>
   </si>
 </sst>
 </file>
@@ -562,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,6 +1443,124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="63.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <f>4069+5523+1020+3123+8247</f>
+        <v>21982</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>20100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <f>1077+2100</f>
+        <v>3177</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>1499</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1594,7 +1732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
